--- a/期末專案/rawdata/國立臺南藝術大學.xlsx
+++ b/期末專案/rawdata/國立臺南藝術大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,26 @@
           <t>國文(1.50)、英文(1.50)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -469,6 +559,26 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>國文(1.25)、英文(1.00)、歷史(1.50)、地理(1.50)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.50</t>
         </is>
       </c>
     </row>
